--- a/画面テスト仕様書/在庫一覧テスト仕様書.xlsx
+++ b/画面テスト仕様書/在庫一覧テスト仕様書.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b8252\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yamac/Desktop/system-devel/画面テスト仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5772C95E-7754-9742-A0D6-C9254AA0D27C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="原本" sheetId="1" r:id="rId1"/>
+    <sheet name="在庫一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -302,11 +303,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,7 +379,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -658,17 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1114,10 +1104,328 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1125,6 +1433,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,39 +1450,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1174,6 +1473,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,18 +1495,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1208,346 +1516,31 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 4" xfId="1"/>
+    <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1824,657 +1817,592 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.69921875" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="114"/>
+      <c r="G1" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20">
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125"/>
+    </row>
+    <row r="2" spans="1:13" ht="19" thickBot="1">
+      <c r="A2" s="110"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="126">
         <v>43809</v>
       </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="128"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="9" t="s">
+      <c r="F3" s="114"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31" t="s">
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
+    </row>
+    <row r="4" spans="1:13" ht="19" thickBot="1">
+      <c r="A4" s="130"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="34" t="s">
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="87"/>
+    </row>
+    <row r="5" spans="1:13" ht="19" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37" t="s">
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40" t="s">
+      <c r="L5" s="90"/>
+      <c r="M5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:13" ht="29.5" customHeight="1">
+      <c r="A6" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="93">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="101">
         <v>43809</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52" t="s">
+      <c r="L6" s="102"/>
+      <c r="M6" s="105" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58" t="s">
+    <row r="7" spans="1:13" ht="28.75" customHeight="1" thickBot="1">
+      <c r="A7" s="92"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="49" t="s">
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-    </row>
-    <row r="8" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64" t="s">
+      <c r="K7" s="103"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="106"/>
+    </row>
+    <row r="8" spans="1:13" ht="31.75" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="49" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="72">
+      <c r="K8" s="83">
         <v>43809</v>
       </c>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74" t="s">
+      <c r="L8" s="84"/>
+      <c r="M8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:13" ht="34.75" customHeight="1">
+      <c r="A9" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="76">
+      <c r="B9" s="67">
         <v>3</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="97" t="s">
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="83" t="s">
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="84">
+      <c r="K9" s="50">
         <v>43809</v>
       </c>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86" t="s">
+      <c r="L9" s="51"/>
+      <c r="M9" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="97" t="s">
+    <row r="10" spans="1:13" ht="33.5" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="83" t="s">
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="96"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75" t="s">
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="55"/>
+    </row>
+    <row r="11" spans="1:13" ht="19.75" customHeight="1">
+      <c r="A11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="76">
+      <c r="B11" s="67">
         <v>4</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="97" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="83" t="s">
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="84">
+      <c r="K11" s="50">
         <v>43809</v>
       </c>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86" t="s">
+      <c r="L11" s="51"/>
+      <c r="M11" s="54" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="97" t="s">
+    <row r="12" spans="1:13" ht="22.25" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="83" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="96"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="100" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="55"/>
+    </row>
+    <row r="13" spans="1:13" ht="21" customHeight="1">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="102" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="83" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="103">
+      <c r="K13" s="35">
         <v>43809</v>
       </c>
-      <c r="L13" s="104"/>
-      <c r="M13" s="105" t="s">
+      <c r="L13" s="36"/>
+      <c r="M13" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="100" t="s">
+    <row r="14" spans="1:13" ht="21" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="107">
+      <c r="B14" s="14">
         <v>6</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="83" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="103">
+      <c r="K14" s="35">
         <v>43809</v>
       </c>
-      <c r="L14" s="104"/>
-      <c r="M14" s="105" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="86"/>
-    </row>
-    <row r="16" spans="1:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="121"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="128"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="128"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="105"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="106"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="133"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="106"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="133"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="106"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="133"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="106"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="133"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="106"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="133"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="106"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="133"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="106"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="133"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="106"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="133"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="106"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="133"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="106"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="134"/>
-      <c r="B29" s="135"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="142"/>
+    <row r="15" spans="1:13" ht="27.5" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="25.25" customHeight="1">
+      <c r="A16" s="38"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="55"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" ht="19" thickBot="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:I5"/>
@@ -2485,16 +2413,81 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="K6:L7"/>
     <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="J3:M3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="K9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
